--- a/Ethiopia Workspace/Code and Control Files/Subnational parameters/Oromia 2021_AHLE scenario parameters CATTLE scenarios only.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/Subnational parameters/Oromia 2021_AHLE scenario parameters CATTLE scenarios only.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\First Analytics\Clients\University of Liverpool\GBADs Github\GBADsLiverpool\Ethiopia Workspace\Code and Control Files\AHLE parameter tables for subnational divisions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\First Analytics\Clients\University of Liverpool\GBADs Github\GBADsLiverpool\Ethiopia Workspace\Code and Control Files\Subnational parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B65BCB8-85B4-492F-9C38-2A97D8F35CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24715E35-A825-40CC-AE4A-5EDF80E3B7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="14292" windowWidth="23256" windowHeight="12720" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,6 +149,39 @@
             <family val="2"/>
           </rPr>
           <t>This column will be ignored by the function.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="1" shapeId="0" xr:uid="{EF78F4E6-039A-B045-8B9B-D365EA49AFBB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>WT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the par.rate from EE was invalid. This is taken from Sheep CLM system and  the existing  is  proprtionaly increased to get the ideal</t>
         </r>
       </text>
     </comment>
@@ -374,6 +407,138 @@
           </rPr>
           <t xml:space="preserve">
 to be cosistetn let us  not clear what the soruces are. use Shapiro et al 2017, table 3 and use the small dairy farms which is are dominnat in the country. These are n 130, 300, 425. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C61" authorId="1" shapeId="0" xr:uid="{E0F57D87-D490-A54E-BF74-50CFE78F96E7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>WT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>we didn’t elcit this parameter os taken form the AM</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D61" authorId="1" shapeId="0" xr:uid="{9CC69C53-3AF8-164C-9791-D62AE67A6E71}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>WT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>we didn’t elcit this parameter os taken form the AM</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E61" authorId="1" shapeId="0" xr:uid="{D7DB8497-0070-9242-A38F-B6C1B02B9C4C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>WT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>we didn’t elcit this parameter os taken form the AM</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F61" authorId="1" shapeId="0" xr:uid="{8681758D-DB32-814F-BE7E-2E5CEB3799E0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>WT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>we didn’t elcit this parameter os taken form the AM</t>
         </r>
       </text>
     </comment>
@@ -837,6 +1002,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="C137" authorId="1" shapeId="0" xr:uid="{37E1F4AE-4DBD-49CC-90A0-E6F91A5D9BFB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>WT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 birr per month? Could be uderestination. But the thing is are we aminingnet profit?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG137" authorId="1" shapeId="0" xr:uid="{0DB777D4-D8E7-41AF-9F44-4528F2FF9C2F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>WT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+the infrastructure here will  definitely be more</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -864,7 +1077,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="407">
   <si>
     <t># Initial population</t>
   </si>
@@ -2075,16 +2288,13 @@
     <t>0+R99:R103</t>
   </si>
   <si>
-    <t>rpert(10000, (2.19*12.5*0.09515), (9*12.5*0.09515), (5.4*12.5*0.09515))</t>
-  </si>
-  <si>
-    <t>rpert(10000, (6000), (26750), (15591))</t>
+    <t>rpert(10000, (6350+635), (14500+1450), (9912+991))</t>
+  </si>
+  <si>
+    <t>rpert(10000, (2675), (15591), (6000))</t>
   </si>
   <si>
     <t>rpert(10000, (920.52/12), (920.52/12), (920.52/12))</t>
-  </si>
-  <si>
-    <t>rpert(10000, (6350+635), (14500+1450), (9912+991))</t>
   </si>
   <si>
     <t>rpert(10000, 0.062/12, 0.062/12, 0.062/12)</t>
@@ -2744,7 +2954,7 @@
   <dimension ref="A1:BZ159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="9" topLeftCell="AF35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="9" topLeftCell="AC20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="AG44" sqref="AG44"/>
@@ -2774,7 +2984,7 @@
     <col min="20" max="20" width="25.5703125" style="32" customWidth="1"/>
     <col min="21" max="31" width="19.42578125" style="32" customWidth="1"/>
     <col min="32" max="32" width="19" style="32" customWidth="1"/>
-    <col min="33" max="33" width="44.140625" style="31" customWidth="1"/>
+    <col min="33" max="33" width="61.85546875" style="31" customWidth="1"/>
     <col min="34" max="34" width="14.5703125" style="31" customWidth="1"/>
     <col min="35" max="35" width="14.42578125" style="31" customWidth="1"/>
     <col min="36" max="36" width="16.140625" style="31" customWidth="1"/>
@@ -4026,8 +4236,7 @@
         <v>194842</v>
       </c>
       <c r="G10" s="26">
-        <f t="shared" si="0"/>
-        <v>194841</v>
+        <v>7970253</v>
       </c>
       <c r="H10" s="26">
         <f t="shared" si="0"/>
@@ -8202,7 +8411,7 @@
         <v>229</v>
       </c>
       <c r="AG44" s="38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AH44" s="39">
         <v>0</v>
@@ -8211,25 +8420,25 @@
         <v>0</v>
       </c>
       <c r="AJ44" s="38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AK44" s="39">
         <v>0</v>
       </c>
       <c r="AL44" s="38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AM44" s="38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AN44" s="38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AO44" s="38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AP44" s="38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AQ44" s="39">
         <v>0</v>
@@ -8238,13 +8447,13 @@
         <v>0</v>
       </c>
       <c r="AS44" s="38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AT44" s="38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AU44" s="38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AV44" s="5"/>
       <c r="AW44" s="5"/>
@@ -11562,7 +11771,7 @@
         <v>367</v>
       </c>
       <c r="T72" s="40" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="U72" s="32" t="s">
         <v>367</v>
@@ -11583,7 +11792,7 @@
         <v>367</v>
       </c>
       <c r="AA72" s="40" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="AB72" s="32" t="s">
         <v>367</v>
@@ -12758,49 +12967,49 @@
         <v>106</v>
       </c>
       <c r="C84" s="26" t="s">
-        <v>403</v>
+        <v>274</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>403</v>
+        <v>274</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>403</v>
+        <v>274</v>
       </c>
       <c r="F84" s="26" t="s">
-        <v>403</v>
+        <v>274</v>
       </c>
       <c r="G84" s="26" t="s">
-        <v>403</v>
+        <v>274</v>
       </c>
       <c r="H84" s="26" t="s">
-        <v>403</v>
+        <v>274</v>
       </c>
       <c r="I84" s="26" t="s">
-        <v>403</v>
+        <v>274</v>
       </c>
       <c r="J84" s="26" t="s">
-        <v>403</v>
+        <v>274</v>
       </c>
       <c r="K84" s="26" t="s">
-        <v>403</v>
+        <v>274</v>
       </c>
       <c r="L84" s="26" t="s">
-        <v>403</v>
+        <v>274</v>
       </c>
       <c r="M84" s="26" t="s">
-        <v>403</v>
+        <v>274</v>
       </c>
       <c r="N84" s="26" t="s">
-        <v>403</v>
+        <v>274</v>
       </c>
       <c r="O84" s="26" t="s">
-        <v>403</v>
+        <v>274</v>
       </c>
       <c r="P84" s="26" t="s">
-        <v>403</v>
+        <v>274</v>
       </c>
       <c r="Q84" s="26" t="s">
-        <v>403</v>
+        <v>274</v>
       </c>
       <c r="R84" s="32" t="s">
         <v>274</v>
@@ -15242,46 +15451,46 @@
         <v>0.3</v>
       </c>
       <c r="D105" s="26">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="E105" s="26">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="F105" s="26">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="G105" s="26">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="H105" s="26">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="I105" s="26">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="J105" s="26">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="K105" s="26">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="L105" s="26">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="M105" s="26">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="N105" s="26">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="O105" s="26">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="P105" s="26">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="Q105" s="26">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="R105" s="32">
         <v>0</v>
